--- a/api/src/models/RecommendedModel.xlsx
+++ b/api/src/models/RecommendedModel.xlsx
@@ -1875,651 +1875,651 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.08608075231313705</v>
+        <v>-0.08671608567237854</v>
       </c>
       <c r="B1">
-        <v>-0.0025551514700055122</v>
+        <v>-0.0017601546132937074</v>
       </c>
       <c r="C1">
-        <v>-0.034701235592365265</v>
+        <v>-0.032232433557510376</v>
       </c>
       <c r="D1">
-        <v>0.12496668845415115</v>
+        <v>0.12680022418498993</v>
       </c>
       <c r="E1">
-        <v>0.04003359377384186</v>
+        <v>0.04001818224787712</v>
       </c>
       <c r="F1">
-        <v>0.039946045726537704</v>
+        <v>0.040380630642175674</v>
       </c>
       <c r="G1">
-        <v>0.04252355173230171</v>
+        <v>0.0402708537876606</v>
       </c>
       <c r="H1">
-        <v>0.054006777703762054</v>
+        <v>0.05308341607451439</v>
       </c>
       <c r="I1">
-        <v>0.05241547152400017</v>
+        <v>0.05176638811826706</v>
       </c>
       <c r="J1">
-        <v>0.05222893878817558</v>
+        <v>0.05133263021707535</v>
       </c>
       <c r="K1">
-        <v>0.0010007602395489812</v>
+        <v>0.0005900285323150456</v>
       </c>
       <c r="L1">
-        <v>0.00038968102307990193</v>
+        <v>-0.00019401909958105534</v>
       </c>
       <c r="M1">
-        <v>-0.0009364461293444037</v>
+        <v>-0.00011741943308152258</v>
       </c>
       <c r="N1">
-        <v>-0.00021421494602691382</v>
+        <v>0.00025479731266386807</v>
       </c>
       <c r="O1">
-        <v>0.0005905611324124038</v>
+        <v>-0.0006867000483907759</v>
       </c>
       <c r="P1">
-        <v>-0.0003355404478497803</v>
+        <v>-0.0013606922002509236</v>
       </c>
       <c r="Q1">
-        <v>-0.0014015870401635766</v>
+        <v>0.00027109633083455265</v>
       </c>
       <c r="R1">
-        <v>0.0007802627515047789</v>
+        <v>0.00021580424800049514</v>
       </c>
       <c r="S1">
-        <v>-0.0012160035548731685</v>
+        <v>-0.0002802847302518785</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.43097105622291565</v>
+        <v>0.4309711754322052</v>
       </c>
       <c r="B2">
-        <v>0.1563767045736313</v>
+        <v>0.1563768982887268</v>
       </c>
       <c r="C2">
-        <v>0.24014410376548767</v>
+        <v>0.2401437610387802</v>
       </c>
       <c r="D2">
-        <v>0.4863571524620056</v>
+        <v>0.486357182264328</v>
       </c>
       <c r="E2">
-        <v>-0.23793575167655945</v>
+        <v>-0.23925307393074036</v>
       </c>
       <c r="F2">
-        <v>-0.23974333703517914</v>
+        <v>-0.23726454377174377</v>
       </c>
       <c r="G2">
-        <v>-0.23764623701572418</v>
+        <v>-0.23880761861801147</v>
       </c>
       <c r="H2">
-        <v>-0.10262522846460342</v>
+        <v>-0.1040557399392128</v>
       </c>
       <c r="I2">
-        <v>-0.10486073791980743</v>
+        <v>-0.10543537139892578</v>
       </c>
       <c r="J2">
-        <v>-0.10660629719495773</v>
+        <v>-0.10460115969181061</v>
       </c>
       <c r="K2">
-        <v>-0.12472961097955704</v>
+        <v>-0.12404678016901016</v>
       </c>
       <c r="L2">
-        <v>-0.12490264326334</v>
+        <v>-0.12658639252185822</v>
       </c>
       <c r="M2">
-        <v>-0.12715643644332886</v>
+        <v>-0.12615542113780975</v>
       </c>
       <c r="N2">
-        <v>-0.28486406803131104</v>
+        <v>-0.28531113266944885</v>
       </c>
       <c r="O2">
-        <v>-0.2861696779727936</v>
+        <v>-0.2855672538280487</v>
       </c>
       <c r="P2">
-        <v>-0.284619003534317</v>
+        <v>-0.2847748398780823</v>
       </c>
       <c r="Q2">
-        <v>-0.14478544890880585</v>
+        <v>-0.14246170222759247</v>
       </c>
       <c r="R2">
-        <v>-0.14309920370578766</v>
+        <v>-0.1432943195104599</v>
       </c>
       <c r="S2">
-        <v>-0.14023227989673615</v>
+        <v>-0.14236120879650116</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.0011040846584364772</v>
+        <v>-0.00019800628069788218</v>
       </c>
       <c r="B3">
-        <v>0.06208975613117218</v>
+        <v>0.06126505881547928</v>
       </c>
       <c r="C3">
-        <v>-0.0017734463326632977</v>
+        <v>0.00032605286105535924</v>
       </c>
       <c r="D3">
-        <v>0.000029042894311714917</v>
+        <v>0.0005245151114650071</v>
       </c>
       <c r="E3">
-        <v>0.0018360672984272242</v>
+        <v>-0.00036748580168932676</v>
       </c>
       <c r="F3">
-        <v>-0.0009671329753473401</v>
+        <v>-0.0009841558057814837</v>
       </c>
       <c r="G3">
-        <v>0.002149133011698723</v>
+        <v>0.0010818426962941885</v>
       </c>
       <c r="H3">
-        <v>0.0017852789023891091</v>
+        <v>-0.0005645749624818563</v>
       </c>
       <c r="I3">
-        <v>-0.00018119947344530374</v>
+        <v>-0.00005422161120804958</v>
       </c>
       <c r="J3">
-        <v>0.0014586396282538772</v>
+        <v>-0.00009148167737293988</v>
       </c>
       <c r="K3">
-        <v>0.06086466833949089</v>
+        <v>0.06166916340589523</v>
       </c>
       <c r="L3">
-        <v>0.062100205570459366</v>
+        <v>0.06295765191316605</v>
       </c>
       <c r="M3">
-        <v>0.0637015849351883</v>
+        <v>0.06286445260047913</v>
       </c>
       <c r="N3">
-        <v>-0.0002829606819432229</v>
+        <v>-0.0007652612985111773</v>
       </c>
       <c r="O3">
-        <v>0.00040446221828460693</v>
+        <v>0.00013066986866761</v>
       </c>
       <c r="P3">
-        <v>-0.00042952102376148105</v>
+        <v>-0.0006767738959752023</v>
       </c>
       <c r="Q3">
-        <v>-0.001094398437999189</v>
+        <v>-0.00000794291372585576</v>
       </c>
       <c r="R3">
-        <v>-0.0018776351353153586</v>
+        <v>-0.0007593160844407976</v>
       </c>
       <c r="S3">
-        <v>0.0018301049713045359</v>
+        <v>0.0012159511679783463</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.27060583233833313</v>
+        <v>0.27060604095458984</v>
       </c>
       <c r="B4">
-        <v>0.10155794769525528</v>
+        <v>0.10155805200338364</v>
       </c>
       <c r="C4">
-        <v>0.12910041213035583</v>
+        <v>0.12910038232803345</v>
       </c>
       <c r="D4">
-        <v>0.5760480165481567</v>
+        <v>0.5760483741760254</v>
       </c>
       <c r="E4">
-        <v>-0.05256805941462517</v>
+        <v>-0.05252458155155182</v>
       </c>
       <c r="F4">
-        <v>-0.05080980062484741</v>
+        <v>-0.05205485224723816</v>
       </c>
       <c r="G4">
-        <v>-0.05309639126062393</v>
+        <v>-0.05189482495188713</v>
       </c>
       <c r="H4">
-        <v>-0.27440133690834045</v>
+        <v>-0.2737237811088562</v>
       </c>
       <c r="I4">
-        <v>-0.2705990970134735</v>
+        <v>-0.2726447880268097</v>
       </c>
       <c r="J4">
-        <v>-0.27557703852653503</v>
+        <v>-0.2742084562778473</v>
       </c>
       <c r="K4">
-        <v>-0.15048933029174805</v>
+        <v>-0.14747990667819977</v>
       </c>
       <c r="L4">
-        <v>-0.14687368273735046</v>
+        <v>-0.14879584312438965</v>
       </c>
       <c r="M4">
-        <v>-0.14532165229320526</v>
+        <v>-0.1464093178510666</v>
       </c>
       <c r="N4">
-        <v>-0.03239225968718529</v>
+        <v>-0.032089706510305405</v>
       </c>
       <c r="O4">
-        <v>-0.03180568292737007</v>
+        <v>-0.03211171552538872</v>
       </c>
       <c r="P4">
-        <v>-0.033800963312387466</v>
+        <v>-0.033797524869441986</v>
       </c>
       <c r="Q4">
-        <v>-0.1162065789103508</v>
+        <v>-0.11615832895040512</v>
       </c>
       <c r="R4">
-        <v>-0.11858154088258743</v>
+        <v>-0.11814993619918823</v>
       </c>
       <c r="S4">
-        <v>-0.11661475151777267</v>
+        <v>-0.11709488183259964</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-0.23102562129497528</v>
+        <v>-0.23103785514831543</v>
       </c>
       <c r="B5">
-        <v>-0.3253394067287445</v>
+        <v>-0.3253485858440399</v>
       </c>
       <c r="C5">
-        <v>-0.2801216244697571</v>
+        <v>-0.28013020753860474</v>
       </c>
       <c r="D5">
-        <v>-0.26304587721824646</v>
+        <v>-0.2630501687526703</v>
       </c>
       <c r="E5">
-        <v>0.1554371565580368</v>
+        <v>0.1557367742061615</v>
       </c>
       <c r="F5">
-        <v>0.15789474546909332</v>
+        <v>0.1552489995956421</v>
       </c>
       <c r="G5">
-        <v>0.15260478854179382</v>
+        <v>0.1549319475889206</v>
       </c>
       <c r="H5">
-        <v>0.11885831505060196</v>
+        <v>0.12026692181825638</v>
       </c>
       <c r="I5">
-        <v>0.12125834822654724</v>
+        <v>0.12117110937833786</v>
       </c>
       <c r="J5">
-        <v>0.12125924229621887</v>
+        <v>0.1199243813753128</v>
       </c>
       <c r="K5">
-        <v>0.13880862295627594</v>
+        <v>0.14090868830680847</v>
       </c>
       <c r="L5">
-        <v>0.13995447754859924</v>
+        <v>0.1394624263048172</v>
       </c>
       <c r="M5">
-        <v>0.14127981662750244</v>
+        <v>0.1396431177854538</v>
       </c>
       <c r="N5">
-        <v>0.11764847487211227</v>
+        <v>0.11698555201292038</v>
       </c>
       <c r="O5">
-        <v>0.11680702865123749</v>
+        <v>0.11721784621477127</v>
       </c>
       <c r="P5">
-        <v>0.1174037978053093</v>
+        <v>0.11764031648635864</v>
       </c>
       <c r="Q5">
-        <v>0.09287760406732559</v>
+        <v>0.0913621336221695</v>
       </c>
       <c r="R5">
-        <v>0.08966247737407684</v>
+        <v>0.09069692343473434</v>
       </c>
       <c r="S5">
-        <v>0.09000570327043533</v>
+        <v>0.09047495573759079</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-0.03197047486901283</v>
+        <v>-0.031585704535245895</v>
       </c>
       <c r="B6">
-        <v>0.3212084174156189</v>
+        <v>0.32159367203712463</v>
       </c>
       <c r="C6">
-        <v>-0.06188387796282768</v>
+        <v>-0.06211810186505318</v>
       </c>
       <c r="D6">
-        <v>-0.4279423654079437</v>
+        <v>-0.42755720019340515</v>
       </c>
       <c r="E6">
-        <v>0.06244894862174988</v>
+        <v>0.062434714287519455</v>
       </c>
       <c r="F6">
-        <v>0.06359917670488358</v>
+        <v>0.06269446760416031</v>
       </c>
       <c r="G6">
-        <v>0.06161780282855034</v>
+        <v>0.06215178593993187</v>
       </c>
       <c r="H6">
-        <v>-0.06834244728088379</v>
+        <v>-0.06943922489881516</v>
       </c>
       <c r="I6">
-        <v>-0.0704123005270958</v>
+        <v>-0.06868444383144379</v>
       </c>
       <c r="J6">
-        <v>-0.0676744356751442</v>
+        <v>-0.06869050115346909</v>
       </c>
       <c r="K6">
-        <v>-0.1893875002861023</v>
+        <v>-0.1887354850769043</v>
       </c>
       <c r="L6">
-        <v>-0.18884339928627014</v>
+        <v>-0.18958352506160736</v>
       </c>
       <c r="M6">
-        <v>-0.1891912966966629</v>
+        <v>-0.18948835134506226</v>
       </c>
       <c r="N6">
-        <v>-0.06293871998786926</v>
+        <v>-0.06330690532922745</v>
       </c>
       <c r="O6">
-        <v>-0.0611053891479969</v>
+        <v>-0.062337130308151245</v>
       </c>
       <c r="P6">
-        <v>-0.06282823532819748</v>
+        <v>-0.060994017869234085</v>
       </c>
       <c r="Q6">
-        <v>0.058608103543519974</v>
+        <v>0.059055402874946594</v>
       </c>
       <c r="R6">
-        <v>0.05961387977004051</v>
+        <v>0.05838355794548988</v>
       </c>
       <c r="S6">
-        <v>0.058545369654893875</v>
+        <v>0.05894318222999573</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.03885427117347717</v>
+        <v>0.04054628312587738</v>
       </c>
       <c r="B7">
-        <v>0.015361884608864784</v>
+        <v>0.01596011221408844</v>
       </c>
       <c r="C7">
-        <v>0.0004587232251651585</v>
+        <v>0.000027505075195222162</v>
       </c>
       <c r="D7">
-        <v>0.014653214253485203</v>
+        <v>0.015251435339450836</v>
       </c>
       <c r="E7">
-        <v>0.0012787503655999899</v>
+        <v>-0.00032243039458990097</v>
       </c>
       <c r="F7">
-        <v>0.00011571287177503109</v>
+        <v>-0.0007425591466017067</v>
       </c>
       <c r="G7">
-        <v>-0.0008784346282482147</v>
+        <v>-0.0004030075797345489</v>
       </c>
       <c r="H7">
-        <v>0.036539509892463684</v>
+        <v>0.03616330772638321</v>
       </c>
       <c r="I7">
-        <v>0.03814158961176872</v>
+        <v>0.03569289669394493</v>
       </c>
       <c r="J7">
-        <v>0.034234169870615005</v>
+        <v>0.03646080195903778</v>
       </c>
       <c r="K7">
-        <v>0.0009696680936031044</v>
+        <v>-0.00037573924055323005</v>
       </c>
       <c r="L7">
-        <v>-0.0011618538992479444</v>
+        <v>-0.0004449726839084178</v>
       </c>
       <c r="M7">
-        <v>0.00023939806851558387</v>
+        <v>-0.00041039983625523746</v>
       </c>
       <c r="N7">
-        <v>0.04111282154917717</v>
+        <v>0.04254871979355812</v>
       </c>
       <c r="O7">
-        <v>0.04219081625342369</v>
+        <v>0.04125430807471275</v>
       </c>
       <c r="P7">
-        <v>0.04367959499359131</v>
+        <v>0.04148820415139198</v>
       </c>
       <c r="Q7">
-        <v>-0.003937471192330122</v>
+        <v>-0.005527553614228964</v>
       </c>
       <c r="R7">
-        <v>-0.004798539914190769</v>
+        <v>-0.0054599083960056305</v>
       </c>
       <c r="S7">
-        <v>-0.006220054347068071</v>
+        <v>-0.004566822666674852</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.10565724968910217</v>
+        <v>-0.1056571677327156</v>
       </c>
       <c r="B8">
-        <v>0.037185486406087875</v>
+        <v>0.03718540072441101</v>
       </c>
       <c r="C8">
-        <v>0.13190355896949768</v>
+        <v>0.13190342485904694</v>
       </c>
       <c r="D8">
-        <v>0.008653710596263409</v>
+        <v>0.008653624914586544</v>
       </c>
       <c r="E8">
-        <v>-0.04118208959698677</v>
+        <v>-0.04136185348033905</v>
       </c>
       <c r="F8">
-        <v>-0.04170958325266838</v>
+        <v>-0.042489636689424515</v>
       </c>
       <c r="G8">
-        <v>-0.042900193482637405</v>
+        <v>-0.041940219700336456</v>
       </c>
       <c r="H8">
-        <v>-0.018060974776744843</v>
+        <v>-0.01816006377339363</v>
       </c>
       <c r="I8">
-        <v>-0.01754564791917801</v>
+        <v>-0.017135674133896828</v>
       </c>
       <c r="J8">
-        <v>-0.01757519133388996</v>
+        <v>-0.017886042594909668</v>
       </c>
       <c r="K8">
-        <v>-0.03979237750172615</v>
+        <v>-0.0405854657292366</v>
       </c>
       <c r="L8">
-        <v>-0.041432544589042664</v>
+        <v>-0.04053742066025734</v>
       </c>
       <c r="M8">
-        <v>-0.040759820491075516</v>
+        <v>-0.04086179658770561</v>
       </c>
       <c r="N8">
-        <v>0.000917585042770952</v>
+        <v>-0.0013524106470867991</v>
       </c>
       <c r="O8">
-        <v>-0.004170226864516735</v>
+        <v>-0.002690156688913703</v>
       </c>
       <c r="P8">
-        <v>-0.0024958932772278786</v>
+        <v>-0.0017058949451893568</v>
       </c>
       <c r="Q8">
-        <v>0.007467425893992186</v>
+        <v>0.007941349409520626</v>
       </c>
       <c r="R8">
-        <v>0.008442162536084652</v>
+        <v>0.007917088456451893</v>
       </c>
       <c r="S8">
-        <v>0.008122758008539677</v>
+        <v>0.00817402359098196</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-0.001221402664668858</v>
+        <v>0.0009884005412459373</v>
       </c>
       <c r="B9">
-        <v>0.0012084817280992866</v>
+        <v>-0.0009625116363167763</v>
       </c>
       <c r="C9">
-        <v>0.0010275489185005426</v>
+        <v>-0.0004848535463679582</v>
       </c>
       <c r="D9">
-        <v>0.00009601515921531245</v>
+        <v>-0.0003353045030962676</v>
       </c>
       <c r="E9">
-        <v>0.0014245498459786177</v>
+        <v>-0.0007740898872725666</v>
       </c>
       <c r="F9">
-        <v>-0.00000876142530614743</v>
+        <v>-0.000954955059569329</v>
       </c>
       <c r="G9">
-        <v>-0.00009255604527425021</v>
+        <v>0.0010271506616845727</v>
       </c>
       <c r="H9">
-        <v>0.00040786751196719706</v>
+        <v>-0.0002902241249103099</v>
       </c>
       <c r="I9">
-        <v>-0.0007215204532258213</v>
+        <v>0.0004277327097952366</v>
       </c>
       <c r="J9">
-        <v>-0.001985458191484213</v>
+        <v>0.001007375423796475</v>
       </c>
       <c r="K9">
-        <v>-0.0028331801295280457</v>
+        <v>-0.0007241646526381373</v>
       </c>
       <c r="L9">
-        <v>-0.0002842305402737111</v>
+        <v>-0.0005691840779036283</v>
       </c>
       <c r="M9">
-        <v>-0.0012351727345958352</v>
+        <v>-0.00010088379349326715</v>
       </c>
       <c r="N9">
-        <v>0.0013229522155597806</v>
+        <v>0.00021639095211867243</v>
       </c>
       <c r="O9">
-        <v>0.00016625141142867506</v>
+        <v>-0.00037931720726192</v>
       </c>
       <c r="P9">
-        <v>-0.001394647522829473</v>
+        <v>-0.00028895866125822067</v>
       </c>
       <c r="Q9">
-        <v>-0.000006915854555700207</v>
+        <v>0.002018340164795518</v>
       </c>
       <c r="R9">
-        <v>0.00017644160834606737</v>
+        <v>-0.0016827613580971956</v>
       </c>
       <c r="S9">
-        <v>0.00031197204953059554</v>
+        <v>-0.0016041293274611235</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-0.006919069215655327</v>
+        <v>-0.006393985822796822</v>
       </c>
       <c r="B10">
-        <v>-0.0002122327423421666</v>
+        <v>-0.00014122348511591554</v>
       </c>
       <c r="C10">
-        <v>0.026284728199243546</v>
+        <v>0.025994664058089256</v>
       </c>
       <c r="D10">
-        <v>0.030122442170977592</v>
+        <v>0.030486969277262688</v>
       </c>
       <c r="E10">
-        <v>-0.005285079125314951</v>
+        <v>-0.007027747109532356</v>
       </c>
       <c r="F10">
-        <v>-0.008130522444844246</v>
+        <v>-0.004778028465807438</v>
       </c>
       <c r="G10">
-        <v>-0.005819716025143862</v>
+        <v>-0.0076645752415061</v>
       </c>
       <c r="H10">
-        <v>0.0036257696337997913</v>
+        <v>-0.0009853957453742623</v>
       </c>
       <c r="I10">
-        <v>0.0008155592950060964</v>
+        <v>0.0004402249469421804</v>
       </c>
       <c r="J10">
-        <v>0.0017714446876198053</v>
+        <v>0.000010295084393874276</v>
       </c>
       <c r="K10">
-        <v>0.030589522793889046</v>
+        <v>0.032735541462898254</v>
       </c>
       <c r="L10">
-        <v>0.03130599111318588</v>
+        <v>0.03313633054494858</v>
       </c>
       <c r="M10">
-        <v>0.036165446043014526</v>
+        <v>0.0324791744351387</v>
       </c>
       <c r="N10">
-        <v>0.03127061575651169</v>
+        <v>0.03210178017616272</v>
       </c>
       <c r="O10">
-        <v>0.031058942899107933</v>
+        <v>0.031422968953847885</v>
       </c>
       <c r="P10">
-        <v>0.03192610666155815</v>
+        <v>0.03036632388830185</v>
       </c>
       <c r="Q10">
-        <v>-0.004706345498561859</v>
+        <v>-0.0005674316198565066</v>
       </c>
       <c r="R10">
-        <v>-0.0018863586010411382</v>
+        <v>0.0004763809556607157</v>
       </c>
       <c r="S10">
-        <v>-0.0006923665059730411</v>
+        <v>0.0006095182616263628</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.0006546791410073638</v>
+        <v>-0.0001760224113240838</v>
       </c>
       <c r="B11">
-        <v>0.0006329750176519156</v>
+        <v>-0.0005064976285211742</v>
       </c>
       <c r="C11">
-        <v>-0.0017740761395543814</v>
+        <v>-0.00012200626952107996</v>
       </c>
       <c r="D11">
-        <v>0.0004573561600409448</v>
+        <v>0.0000774823929532431</v>
       </c>
       <c r="E11">
-        <v>0.0008336649043485522</v>
+        <v>0.0005115590756759048</v>
       </c>
       <c r="F11">
-        <v>-0.00044171191984787583</v>
+        <v>-0.0003570976259652525</v>
       </c>
       <c r="G11">
-        <v>0.0005625170888379216</v>
+        <v>0.0006049249204806983</v>
       </c>
       <c r="H11">
-        <v>0.0019414330599829555</v>
+        <v>-0.00021936313714832067</v>
       </c>
       <c r="I11">
-        <v>0.000186596269486472</v>
+        <v>0.0005825464613735676</v>
       </c>
       <c r="J11">
-        <v>0.0030425237491726875</v>
+        <v>0.0008920580148696899</v>
       </c>
       <c r="K11">
-        <v>-0.001870154868811369</v>
+        <v>-0.00045104415039531887</v>
       </c>
       <c r="L11">
-        <v>0.0005643782205879688</v>
+        <v>0.00011243222979828715</v>
       </c>
       <c r="M11">
-        <v>-0.0020696164574474096</v>
+        <v>0.0009312925394624472</v>
       </c>
       <c r="N11">
-        <v>0.003825114807114005</v>
+        <v>-0.0005616900161840022</v>
       </c>
       <c r="O11">
-        <v>0.0010897290194407105</v>
+        <v>-0.0007557788048870862</v>
       </c>
       <c r="P11">
-        <v>0.001187397399917245</v>
+        <v>0.00026039514341391623</v>
       </c>
       <c r="Q11">
-        <v>-0.0031630501616746187</v>
+        <v>0.0005547666223719716</v>
       </c>
       <c r="R11">
-        <v>-0.001017099479213357</v>
+        <v>-0.0004933871678076684</v>
       </c>
       <c r="S11">
-        <v>0.0026995022781193256</v>
+        <v>-0.0008246845682151616</v>
       </c>
     </row>
   </sheetData>

--- a/api/src/models/RecommendedModel.xlsx
+++ b/api/src/models/RecommendedModel.xlsx
@@ -1875,651 +1875,651 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.08671608567237854</v>
+        <v>-0.07280004024505615</v>
       </c>
       <c r="B1">
-        <v>-0.0017601546132937074</v>
+        <v>-0.0004332486423663795</v>
       </c>
       <c r="C1">
-        <v>-0.032232433557510376</v>
+        <v>-0.055139195173978806</v>
       </c>
       <c r="D1">
-        <v>0.12680022418498993</v>
+        <v>0.1182776689529419</v>
       </c>
       <c r="E1">
-        <v>0.04001818224787712</v>
+        <v>0.04372069239616394</v>
       </c>
       <c r="F1">
-        <v>0.040380630642175674</v>
+        <v>0.042537715286016464</v>
       </c>
       <c r="G1">
-        <v>0.0402708537876606</v>
+        <v>0.04314124956727028</v>
       </c>
       <c r="H1">
-        <v>0.05308341607451439</v>
+        <v>0.018891192972660065</v>
       </c>
       <c r="I1">
-        <v>0.05176638811826706</v>
+        <v>0.017223013564944267</v>
       </c>
       <c r="J1">
-        <v>0.05133263021707535</v>
+        <v>0.01866169646382332</v>
       </c>
       <c r="K1">
-        <v>0.0005900285323150456</v>
+        <v>0.0009198858751915395</v>
       </c>
       <c r="L1">
-        <v>-0.00019401909958105534</v>
+        <v>0.00001694499223958701</v>
       </c>
       <c r="M1">
-        <v>-0.00011741943308152258</v>
+        <v>-0.00009114958811551332</v>
       </c>
       <c r="N1">
-        <v>0.00025479731266386807</v>
+        <v>0.0015882739098742604</v>
       </c>
       <c r="O1">
-        <v>-0.0006867000483907759</v>
+        <v>0.0009788075694814324</v>
       </c>
       <c r="P1">
-        <v>-0.0013606922002509236</v>
+        <v>0.004111133515834808</v>
       </c>
       <c r="Q1">
-        <v>0.00027109633083455265</v>
+        <v>-0.0005414272891357541</v>
       </c>
       <c r="R1">
-        <v>0.00021580424800049514</v>
+        <v>0.00020806425891350955</v>
       </c>
       <c r="S1">
-        <v>-0.0002802847302518785</v>
+        <v>0.0005093450890854001</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.4309711754322052</v>
+        <v>0.5161229968070984</v>
       </c>
       <c r="B2">
-        <v>0.1563768982887268</v>
+        <v>0.21256479620933533</v>
       </c>
       <c r="C2">
-        <v>0.2401437610387802</v>
+        <v>0.2354714572429657</v>
       </c>
       <c r="D2">
-        <v>0.486357182264328</v>
+        <v>0.3908395767211914</v>
       </c>
       <c r="E2">
-        <v>-0.23925307393074036</v>
+        <v>-0.2660878002643585</v>
       </c>
       <c r="F2">
-        <v>-0.23726454377174377</v>
+        <v>-0.2661065459251404</v>
       </c>
       <c r="G2">
-        <v>-0.23880761861801147</v>
+        <v>-0.2656714916229248</v>
       </c>
       <c r="H2">
-        <v>-0.1040557399392128</v>
+        <v>-0.13329842686653137</v>
       </c>
       <c r="I2">
-        <v>-0.10543537139892578</v>
+        <v>-0.13325855135917664</v>
       </c>
       <c r="J2">
-        <v>-0.10460115969181061</v>
+        <v>-0.13409578800201416</v>
       </c>
       <c r="K2">
-        <v>-0.12404678016901016</v>
+        <v>-0.13497042655944824</v>
       </c>
       <c r="L2">
-        <v>-0.12658639252185822</v>
+        <v>-0.13333839178085327</v>
       </c>
       <c r="M2">
-        <v>-0.12615542113780975</v>
+        <v>-0.13541927933692932</v>
       </c>
       <c r="N2">
-        <v>-0.28531113266944885</v>
+        <v>-0.254037469625473</v>
       </c>
       <c r="O2">
-        <v>-0.2855672538280487</v>
+        <v>-0.25433146953582764</v>
       </c>
       <c r="P2">
-        <v>-0.2847748398780823</v>
+        <v>-0.25239884853363037</v>
       </c>
       <c r="Q2">
-        <v>-0.14246170222759247</v>
+        <v>-0.17130832374095917</v>
       </c>
       <c r="R2">
-        <v>-0.1432943195104599</v>
+        <v>-0.17116966843605042</v>
       </c>
       <c r="S2">
-        <v>-0.14236120879650116</v>
+        <v>-0.17022697627544403</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.00019800628069788218</v>
+        <v>0.001133614219725132</v>
       </c>
       <c r="B3">
-        <v>0.06126505881547928</v>
+        <v>0.06128375604748726</v>
       </c>
       <c r="C3">
-        <v>0.00032605286105535924</v>
+        <v>-0.00042832668987102807</v>
       </c>
       <c r="D3">
-        <v>0.0005245151114650071</v>
+        <v>0.00019371994130779058</v>
       </c>
       <c r="E3">
-        <v>-0.00036748580168932676</v>
+        <v>-0.00014075907529331744</v>
       </c>
       <c r="F3">
-        <v>-0.0009841558057814837</v>
+        <v>0.0002446688013151288</v>
       </c>
       <c r="G3">
-        <v>0.0010818426962941885</v>
+        <v>1.3341227145247103e-7</v>
       </c>
       <c r="H3">
-        <v>-0.0005645749624818563</v>
+        <v>-0.0002379823854425922</v>
       </c>
       <c r="I3">
-        <v>-0.00005422161120804958</v>
+        <v>0.00008069275645539165</v>
       </c>
       <c r="J3">
-        <v>-0.00009148167737293988</v>
+        <v>-0.0003332891210447997</v>
       </c>
       <c r="K3">
-        <v>0.06166916340589523</v>
+        <v>0.06177857518196106</v>
       </c>
       <c r="L3">
-        <v>0.06295765191316605</v>
+        <v>0.06251046806573868</v>
       </c>
       <c r="M3">
-        <v>0.06286445260047913</v>
+        <v>0.06318341940641403</v>
       </c>
       <c r="N3">
-        <v>-0.0007652612985111773</v>
+        <v>-0.0020144337322562933</v>
       </c>
       <c r="O3">
-        <v>0.00013066986866761</v>
+        <v>0.0011820292565971613</v>
       </c>
       <c r="P3">
-        <v>-0.0006767738959752023</v>
+        <v>-0.0009340913966298103</v>
       </c>
       <c r="Q3">
-        <v>-0.00000794291372585576</v>
+        <v>-0.001229288405738771</v>
       </c>
       <c r="R3">
-        <v>-0.0007593160844407976</v>
+        <v>-0.0007320639560930431</v>
       </c>
       <c r="S3">
-        <v>0.0012159511679783463</v>
+        <v>-0.000639815058093518</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.27060604095458984</v>
+        <v>0.2910897433757782</v>
       </c>
       <c r="B4">
-        <v>0.10155805200338364</v>
+        <v>-0.09107086807489395</v>
       </c>
       <c r="C4">
-        <v>0.12910038232803345</v>
+        <v>0.02042197436094284</v>
       </c>
       <c r="D4">
-        <v>0.5760483741760254</v>
+        <v>0.4724906086921692</v>
       </c>
       <c r="E4">
-        <v>-0.05252458155155182</v>
+        <v>-0.028906339779496193</v>
       </c>
       <c r="F4">
-        <v>-0.05205485224723816</v>
+        <v>-0.030832583084702492</v>
       </c>
       <c r="G4">
-        <v>-0.05189482495188713</v>
+        <v>-0.029638702049851418</v>
       </c>
       <c r="H4">
-        <v>-0.2737237811088562</v>
+        <v>-0.2392246425151825</v>
       </c>
       <c r="I4">
-        <v>-0.2726447880268097</v>
+        <v>-0.2388056069612503</v>
       </c>
       <c r="J4">
-        <v>-0.2742084562778473</v>
+        <v>-0.2396756261587143</v>
       </c>
       <c r="K4">
-        <v>-0.14747990667819977</v>
+        <v>-0.15408247709274292</v>
       </c>
       <c r="L4">
-        <v>-0.14879584312438965</v>
+        <v>-0.15514150261878967</v>
       </c>
       <c r="M4">
-        <v>-0.1464093178510666</v>
+        <v>-0.1543542742729187</v>
       </c>
       <c r="N4">
-        <v>-0.032089706510305405</v>
+        <v>0.017598744481801987</v>
       </c>
       <c r="O4">
-        <v>-0.03211171552538872</v>
+        <v>0.013614331372082233</v>
       </c>
       <c r="P4">
-        <v>-0.033797524869441986</v>
+        <v>0.01578175649046898</v>
       </c>
       <c r="Q4">
-        <v>-0.11615832895040512</v>
+        <v>-0.08082029968500137</v>
       </c>
       <c r="R4">
-        <v>-0.11814993619918823</v>
+        <v>-0.08200271427631378</v>
       </c>
       <c r="S4">
-        <v>-0.11709488183259964</v>
+        <v>-0.08281446993350983</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-0.23103785514831543</v>
+        <v>-0.03470778465270996</v>
       </c>
       <c r="B5">
-        <v>-0.3253485858440399</v>
+        <v>-0.1029568687081337</v>
       </c>
       <c r="C5">
-        <v>-0.28013020753860474</v>
+        <v>-0.10050535202026367</v>
       </c>
       <c r="D5">
-        <v>-0.2630501687526703</v>
+        <v>-0.08981982618570328</v>
       </c>
       <c r="E5">
-        <v>0.1557367742061615</v>
+        <v>0.049203936010599136</v>
       </c>
       <c r="F5">
-        <v>0.1552489995956421</v>
+        <v>0.04934271425008774</v>
       </c>
       <c r="G5">
-        <v>0.1549319475889206</v>
+        <v>0.04762214049696922</v>
       </c>
       <c r="H5">
-        <v>0.12026692181825638</v>
+        <v>0.0385168194770813</v>
       </c>
       <c r="I5">
-        <v>0.12117110937833786</v>
+        <v>0.04094672203063965</v>
       </c>
       <c r="J5">
-        <v>0.1199243813753128</v>
+        <v>0.041310351341962814</v>
       </c>
       <c r="K5">
-        <v>0.14090868830680847</v>
+        <v>0.0644979476928711</v>
       </c>
       <c r="L5">
-        <v>0.1394624263048172</v>
+        <v>0.06677431613206863</v>
       </c>
       <c r="M5">
-        <v>0.1396431177854538</v>
+        <v>0.0649557039141655</v>
       </c>
       <c r="N5">
-        <v>0.11698555201292038</v>
+        <v>0.040938060730695724</v>
       </c>
       <c r="O5">
-        <v>0.11721784621477127</v>
+        <v>0.04232950136065483</v>
       </c>
       <c r="P5">
-        <v>0.11764031648635864</v>
+        <v>0.04107270389795303</v>
       </c>
       <c r="Q5">
-        <v>0.0913621336221695</v>
+        <v>0.025017565116286278</v>
       </c>
       <c r="R5">
-        <v>0.09069692343473434</v>
+        <v>0.02516329288482666</v>
       </c>
       <c r="S5">
-        <v>0.09047495573759079</v>
+        <v>0.025466101244091988</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-0.031585704535245895</v>
+        <v>-0.03129834309220314</v>
       </c>
       <c r="B6">
-        <v>0.32159367203712463</v>
+        <v>0.32188060879707336</v>
       </c>
       <c r="C6">
-        <v>-0.06211810186505318</v>
+        <v>-0.06196107715368271</v>
       </c>
       <c r="D6">
-        <v>-0.42755720019340515</v>
+        <v>-0.42727023363113403</v>
       </c>
       <c r="E6">
-        <v>0.062434714287519455</v>
+        <v>0.06117747351527214</v>
       </c>
       <c r="F6">
-        <v>0.06269446760416031</v>
+        <v>0.062076520174741745</v>
       </c>
       <c r="G6">
-        <v>0.06215178593993187</v>
+        <v>0.06373979896306992</v>
       </c>
       <c r="H6">
-        <v>-0.06943922489881516</v>
+        <v>-0.07009643316268921</v>
       </c>
       <c r="I6">
-        <v>-0.06868444383144379</v>
+        <v>-0.0692320391535759</v>
       </c>
       <c r="J6">
-        <v>-0.06869050115346909</v>
+        <v>-0.06777284294366837</v>
       </c>
       <c r="K6">
-        <v>-0.1887354850769043</v>
+        <v>-0.18990832567214966</v>
       </c>
       <c r="L6">
-        <v>-0.18958352506160736</v>
+        <v>-0.1883227527141571</v>
       </c>
       <c r="M6">
-        <v>-0.18948835134506226</v>
+        <v>-0.18986327946186066</v>
       </c>
       <c r="N6">
-        <v>-0.06330690532922745</v>
+        <v>-0.06227486580610275</v>
       </c>
       <c r="O6">
-        <v>-0.062337130308151245</v>
+        <v>-0.06240422651171684</v>
       </c>
       <c r="P6">
-        <v>-0.060994017869234085</v>
+        <v>-0.062116049230098724</v>
       </c>
       <c r="Q6">
-        <v>0.059055402874946594</v>
+        <v>0.059602491557598114</v>
       </c>
       <c r="R6">
-        <v>0.05838355794548988</v>
+        <v>0.05905628949403763</v>
       </c>
       <c r="S6">
-        <v>0.05894318222999573</v>
+        <v>0.05743642523884773</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.04054628312587738</v>
+        <v>-0.0004979472141712904</v>
       </c>
       <c r="B7">
-        <v>0.01596011221408844</v>
+        <v>0.016334407031536102</v>
       </c>
       <c r="C7">
-        <v>0.000027505075195222162</v>
+        <v>-0.0011616391129791737</v>
       </c>
       <c r="D7">
-        <v>0.015251435339450836</v>
+        <v>0.015625741332769394</v>
       </c>
       <c r="E7">
-        <v>-0.00032243039458990097</v>
+        <v>0.000021596375518129207</v>
       </c>
       <c r="F7">
-        <v>-0.0007425591466017067</v>
+        <v>0.0002536646497901529</v>
       </c>
       <c r="G7">
-        <v>-0.0004030075797345489</v>
+        <v>-0.0014535117661580443</v>
       </c>
       <c r="H7">
-        <v>0.03616330772638321</v>
+        <v>0.03740919753909111</v>
       </c>
       <c r="I7">
-        <v>0.03569289669394493</v>
+        <v>0.035101812332868576</v>
       </c>
       <c r="J7">
-        <v>0.03646080195903778</v>
+        <v>0.035431742668151855</v>
       </c>
       <c r="K7">
-        <v>-0.00037573924055323005</v>
+        <v>0.0001660713751334697</v>
       </c>
       <c r="L7">
-        <v>-0.0004449726839084178</v>
+        <v>0.00031112279975786805</v>
       </c>
       <c r="M7">
-        <v>-0.00041039983625523746</v>
+        <v>-0.002546299248933792</v>
       </c>
       <c r="N7">
-        <v>0.04254871979355812</v>
+        <v>-0.00055687315762043</v>
       </c>
       <c r="O7">
-        <v>0.04125430807471275</v>
+        <v>0.0013927952386438847</v>
       </c>
       <c r="P7">
-        <v>0.04148820415139198</v>
+        <v>-0.0003379749250598252</v>
       </c>
       <c r="Q7">
-        <v>-0.005527553614228964</v>
+        <v>-0.006147206760942936</v>
       </c>
       <c r="R7">
-        <v>-0.0054599083960056305</v>
+        <v>-0.004630942363291979</v>
       </c>
       <c r="S7">
-        <v>-0.004566822666674852</v>
+        <v>-0.005150441080331802</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.1056571677327156</v>
+        <v>-0.5035370588302612</v>
       </c>
       <c r="B8">
-        <v>0.03718540072441101</v>
+        <v>-0.3303435146808624</v>
       </c>
       <c r="C8">
-        <v>0.13190342485904694</v>
+        <v>-0.16521087288856506</v>
       </c>
       <c r="D8">
-        <v>0.008653624914586544</v>
+        <v>-0.3140982687473297</v>
       </c>
       <c r="E8">
-        <v>-0.04136185348033905</v>
+        <v>0.137089341878891</v>
       </c>
       <c r="F8">
-        <v>-0.042489636689424515</v>
+        <v>0.13731588423252106</v>
       </c>
       <c r="G8">
-        <v>-0.041940219700336456</v>
+        <v>0.1380559206008911</v>
       </c>
       <c r="H8">
-        <v>-0.01816006377339363</v>
+        <v>0.17737649381160736</v>
       </c>
       <c r="I8">
-        <v>-0.017135674133896828</v>
+        <v>0.17803379893302917</v>
       </c>
       <c r="J8">
-        <v>-0.017886042594909668</v>
+        <v>0.17663389444351196</v>
       </c>
       <c r="K8">
-        <v>-0.0405854657292366</v>
+        <v>0.10500673949718475</v>
       </c>
       <c r="L8">
-        <v>-0.04053742066025734</v>
+        <v>0.10776825994253159</v>
       </c>
       <c r="M8">
-        <v>-0.04086179658770561</v>
+        <v>0.10565894097089767</v>
       </c>
       <c r="N8">
-        <v>-0.0013524106470867991</v>
+        <v>0.17744261026382446</v>
       </c>
       <c r="O8">
-        <v>-0.002690156688913703</v>
+        <v>0.18002621829509735</v>
       </c>
       <c r="P8">
-        <v>-0.0017058949451893568</v>
+        <v>0.17869289219379425</v>
       </c>
       <c r="Q8">
-        <v>0.007941349409520626</v>
+        <v>0.1173505187034607</v>
       </c>
       <c r="R8">
-        <v>0.007917088456451893</v>
+        <v>0.1166469156742096</v>
       </c>
       <c r="S8">
-        <v>0.00817402359098196</v>
+        <v>0.11843691766262054</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.0009884005412459373</v>
+        <v>0.0012389865005388856</v>
       </c>
       <c r="B9">
-        <v>-0.0009625116363167763</v>
+        <v>-0.0007702732109464705</v>
       </c>
       <c r="C9">
-        <v>-0.0004848535463679582</v>
+        <v>-0.0007243681466206908</v>
       </c>
       <c r="D9">
-        <v>-0.0003353045030962676</v>
+        <v>0.0004361331812106073</v>
       </c>
       <c r="E9">
-        <v>-0.0007740898872725666</v>
+        <v>0.00040006652125157416</v>
       </c>
       <c r="F9">
-        <v>-0.000954955059569329</v>
+        <v>-0.0011623708996921778</v>
       </c>
       <c r="G9">
-        <v>0.0010271506616845727</v>
+        <v>-0.000988462707027793</v>
       </c>
       <c r="H9">
-        <v>-0.0002902241249103099</v>
+        <v>-0.0008132400107569993</v>
       </c>
       <c r="I9">
-        <v>0.0004277327097952366</v>
+        <v>-0.00041650101775303483</v>
       </c>
       <c r="J9">
-        <v>0.001007375423796475</v>
+        <v>-0.0016201215330511332</v>
       </c>
       <c r="K9">
-        <v>-0.0007241646526381373</v>
+        <v>0.00021010579075664282</v>
       </c>
       <c r="L9">
-        <v>-0.0005691840779036283</v>
+        <v>-0.0006471120868809521</v>
       </c>
       <c r="M9">
-        <v>-0.00010088379349326715</v>
+        <v>-0.0003668604767881334</v>
       </c>
       <c r="N9">
-        <v>0.00021639095211867243</v>
+        <v>-0.0003644875541795045</v>
       </c>
       <c r="O9">
-        <v>-0.00037931720726192</v>
+        <v>0.0007723585586063564</v>
       </c>
       <c r="P9">
-        <v>-0.00028895866125822067</v>
+        <v>0.0010998654179275036</v>
       </c>
       <c r="Q9">
-        <v>0.002018340164795518</v>
+        <v>-0.002243451541289687</v>
       </c>
       <c r="R9">
-        <v>-0.0016827613580971956</v>
+        <v>0.0016583185642957687</v>
       </c>
       <c r="S9">
-        <v>-0.0016041293274611235</v>
+        <v>-0.00013585238775704056</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-0.006393985822796822</v>
+        <v>-0.007094200700521469</v>
       </c>
       <c r="B10">
-        <v>-0.00014122348511591554</v>
+        <v>-0.0002343974483665079</v>
       </c>
       <c r="C10">
-        <v>0.025994664058089256</v>
+        <v>0.025301575660705566</v>
       </c>
       <c r="D10">
-        <v>0.030486969277262688</v>
+        <v>0.031305450946092606</v>
       </c>
       <c r="E10">
-        <v>-0.007027747109532356</v>
+        <v>-0.005712112877517939</v>
       </c>
       <c r="F10">
-        <v>-0.004778028465807438</v>
+        <v>-0.006510045379400253</v>
       </c>
       <c r="G10">
-        <v>-0.0076645752415061</v>
+        <v>-0.005854874383658171</v>
       </c>
       <c r="H10">
-        <v>-0.0009853957453742623</v>
+        <v>0.0001428508694516495</v>
       </c>
       <c r="I10">
-        <v>0.0004402249469421804</v>
+        <v>-0.0011412976309657097</v>
       </c>
       <c r="J10">
-        <v>0.000010295084393874276</v>
+        <v>-0.0013182073598727584</v>
       </c>
       <c r="K10">
-        <v>0.032735541462898254</v>
+        <v>0.034288279712200165</v>
       </c>
       <c r="L10">
-        <v>0.03313633054494858</v>
+        <v>0.03199222683906555</v>
       </c>
       <c r="M10">
-        <v>0.0324791744351387</v>
+        <v>0.032763607800006866</v>
       </c>
       <c r="N10">
-        <v>0.03210178017616272</v>
+        <v>0.031199606135487556</v>
       </c>
       <c r="O10">
-        <v>0.031422968953847885</v>
+        <v>0.031608905643224716</v>
       </c>
       <c r="P10">
-        <v>0.03036632388830185</v>
+        <v>0.030264148488640785</v>
       </c>
       <c r="Q10">
-        <v>-0.0005674316198565066</v>
+        <v>-0.00004830239777220413</v>
       </c>
       <c r="R10">
-        <v>0.0004763809556607157</v>
+        <v>-0.000985483406111598</v>
       </c>
       <c r="S10">
-        <v>0.0006095182616263628</v>
+        <v>0.0002099456323776394</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-0.0001760224113240838</v>
+        <v>0.0008215324487537146</v>
       </c>
       <c r="B11">
-        <v>-0.0005064976285211742</v>
+        <v>0.0006729270098730922</v>
       </c>
       <c r="C11">
-        <v>-0.00012200626952107996</v>
+        <v>0.00013381555618252605</v>
       </c>
       <c r="D11">
-        <v>0.0000774823929532431</v>
+        <v>0.00143873889464885</v>
       </c>
       <c r="E11">
-        <v>0.0005115590756759048</v>
+        <v>0.0010154377669095993</v>
       </c>
       <c r="F11">
-        <v>-0.0003570976259652525</v>
+        <v>0.00008277846063720062</v>
       </c>
       <c r="G11">
-        <v>0.0006049249204806983</v>
+        <v>-0.001005237689241767</v>
       </c>
       <c r="H11">
-        <v>-0.00021936313714832067</v>
+        <v>-0.0013256192905828357</v>
       </c>
       <c r="I11">
-        <v>0.0005825464613735676</v>
+        <v>-0.001696811174042523</v>
       </c>
       <c r="J11">
-        <v>0.0008920580148696899</v>
+        <v>0.00031261483673006296</v>
       </c>
       <c r="K11">
-        <v>-0.00045104415039531887</v>
+        <v>-0.0001020335330395028</v>
       </c>
       <c r="L11">
-        <v>0.00011243222979828715</v>
+        <v>-0.0012702734675258398</v>
       </c>
       <c r="M11">
-        <v>0.0009312925394624472</v>
+        <v>-0.001576438546180725</v>
       </c>
       <c r="N11">
-        <v>-0.0005616900161840022</v>
+        <v>0.000020425002730917186</v>
       </c>
       <c r="O11">
-        <v>-0.0007557788048870862</v>
+        <v>-0.000978680793195963</v>
       </c>
       <c r="P11">
-        <v>0.00026039514341391623</v>
+        <v>0.0008841399103403091</v>
       </c>
       <c r="Q11">
-        <v>0.0005547666223719716</v>
+        <v>-0.00047247286420315504</v>
       </c>
       <c r="R11">
-        <v>-0.0004933871678076684</v>
+        <v>-0.0008253026753664017</v>
       </c>
       <c r="S11">
-        <v>-0.0008246845682151616</v>
+        <v>0.00024145090719684958</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8333333134651184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2585,22 +2585,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.8333333134651184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.8333333134651184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
